--- a/result/NCDC_weather_data/stations_imputed/51818099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51818099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O2" t="n">
         <v>95.36000000000001</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O3" t="n">
         <v>94.09999999999999</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O4" t="n">
         <v>94.09999999999999</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -737,7 +749,9 @@
       <c r="M5" t="n">
         <v>2.417868</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O5" t="n">
         <v>91.22</v>
       </c>
@@ -747,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +809,9 @@
       <c r="M6" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O6" t="n">
         <v>91.22</v>
       </c>
@@ -803,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -849,7 +869,9 @@
       <c r="M7" t="n">
         <v>1.491876</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O7" t="n">
         <v>100.94</v>
       </c>
@@ -859,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -905,7 +929,9 @@
       <c r="M8" t="n">
         <v>1.903428</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O8" t="n">
         <v>103.28</v>
       </c>
@@ -915,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -961,7 +989,9 @@
       <c r="M9" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O9" t="n">
         <v>103.28</v>
       </c>
@@ -971,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1017,7 +1049,9 @@
       <c r="M10" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O10" t="n">
         <v>102.92</v>
       </c>
@@ -1027,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1073,7 +1109,9 @@
       <c r="M11" t="n">
         <v>1.388988</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O11" t="n">
         <v>102.92</v>
       </c>
@@ -1083,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1129,7 +1169,9 @@
       <c r="M12" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O12" t="n">
         <v>102.2</v>
       </c>
@@ -1139,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1185,7 +1229,9 @@
       <c r="M13" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O13" t="n">
         <v>102.2</v>
       </c>
@@ -1195,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1241,7 +1289,9 @@
       <c r="M14" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O14" t="n">
         <v>97.7</v>
       </c>
@@ -1251,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1297,7 +1349,9 @@
       <c r="M15" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>6.592482077586207</v>
+      </c>
       <c r="O15" t="n">
         <v>105.08</v>
       </c>
@@ -1307,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1365,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1423,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1481,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1539,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1597,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1655,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1713,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1771,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1829,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1887,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1945,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2003,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2061,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2119,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2177,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2235,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2293,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2351,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2409,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2467,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2525,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2583,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2641,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2699,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2757,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2815,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2873,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2931,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2989,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3047,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3105,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3163,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3221,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3279,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3337,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3395,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3453,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3511,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3569,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3627,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3685,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3743,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3801,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3859,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3917,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3975,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4033,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4091,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4149,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4207,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4265,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4323,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4381,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4439,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4497,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4555,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4613,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4671,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4729,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4787,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4845,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4903,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4961,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5019,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5077,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5135,7 +5321,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5193,7 +5381,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5251,7 +5441,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5309,7 +5501,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5367,7 +5561,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5425,7 +5621,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5483,7 +5681,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5541,7 +5741,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5599,7 +5801,9 @@
       <c r="Q89" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5657,7 +5861,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5715,7 +5921,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5773,7 +5981,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5831,7 +6041,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5889,7 +6101,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5947,7 +6161,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6005,7 +6221,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6063,7 +6281,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6121,7 +6341,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6179,7 +6401,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6237,7 +6461,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6295,7 +6521,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6353,7 +6581,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6411,7 +6641,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6469,7 +6701,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6527,7 +6761,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6585,7 +6821,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6643,7 +6881,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6701,7 +6941,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6759,7 +7001,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6817,7 +7061,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6875,7 +7121,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6933,7 +7181,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6991,7 +7241,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7049,7 +7301,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7107,7 +7361,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7165,7 +7421,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7223,7 +7481,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7281,7 +7541,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7339,7 +7601,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7397,7 +7661,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7455,7 +7721,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7513,7 +7781,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7571,7 +7841,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7629,7 +7901,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7687,7 +7961,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7745,7 +8021,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7803,7 +8081,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7861,7 +8141,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7919,7 +8201,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7977,7 +8261,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8035,7 +8321,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8093,7 +8381,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8151,7 +8441,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8209,7 +8501,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8267,7 +8561,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8325,7 +8621,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8383,7 +8681,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8441,7 +8741,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8499,7 +8801,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8557,7 +8861,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8615,7 +8921,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8673,7 +8981,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8731,7 +9041,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8789,7 +9101,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8847,7 +9161,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8905,7 +9221,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8963,7 +9281,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9021,7 +9341,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9079,7 +9401,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9137,7 +9461,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9195,7 +9521,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9253,7 +9581,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9311,7 +9641,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9369,7 +9701,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9427,7 +9761,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9485,7 +9821,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9543,7 +9881,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9601,7 +9941,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9659,7 +10001,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9717,7 +10061,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9775,7 +10121,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9833,7 +10181,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9891,7 +10241,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9949,7 +10301,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10007,7 +10361,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10065,7 +10421,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10123,7 +10481,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10181,7 +10541,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10239,7 +10601,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10297,7 +10661,9 @@
       <c r="Q170" t="n">
         <v>0.008128</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10355,7 +10721,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10413,7 +10781,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10471,7 +10841,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10529,7 +10901,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10587,7 +10961,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10645,7 +11021,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10703,7 +11081,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10761,7 +11141,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10819,7 +11201,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10877,7 +11261,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10935,7 +11321,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10993,7 +11381,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11051,7 +11441,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11109,7 +11501,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11167,7 +11561,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11225,7 +11621,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11283,7 +11681,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11341,7 +11741,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11399,7 +11801,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11457,7 +11861,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11515,7 +11921,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11573,7 +11981,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11631,7 +12041,9 @@
       <c r="Q193" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11689,7 +12101,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11747,7 +12161,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11805,7 +12221,9 @@
       <c r="Q196" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11863,7 +12281,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11921,7 +12341,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11979,7 +12401,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12037,7 +12461,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12095,7 +12521,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12153,7 +12581,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12211,7 +12641,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12269,7 +12701,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12327,7 +12761,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12385,7 +12821,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12443,7 +12881,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12501,7 +12941,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12559,7 +13001,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12617,7 +13061,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12675,7 +13121,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12733,7 +13181,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12791,7 +13241,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12849,7 +13301,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12907,7 +13361,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12965,7 +13421,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13023,7 +13481,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13081,7 +13541,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13139,7 +13601,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13197,7 +13661,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13255,7 +13721,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13313,7 +13781,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13371,7 +13841,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13429,7 +13901,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13487,7 +13961,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13545,7 +14021,9 @@
       <c r="Q226" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13603,7 +14081,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13661,7 +14141,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13719,7 +14201,9 @@
       <c r="Q229" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13777,7 +14261,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13835,7 +14321,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13893,7 +14381,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13951,7 +14441,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14009,7 +14501,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14067,7 +14561,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14125,7 +14621,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14183,7 +14681,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14241,7 +14741,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14299,7 +14801,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14357,7 +14861,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14415,7 +14921,9 @@
       <c r="Q241" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14473,7 +14981,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14531,7 +15041,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14589,7 +15101,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14647,7 +15161,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14705,7 +15221,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14763,7 +15281,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14821,7 +15341,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14879,7 +15401,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14937,7 +15461,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14995,7 +15521,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15053,7 +15581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15111,7 +15641,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15169,7 +15701,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15227,7 +15761,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15285,7 +15821,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15343,7 +15881,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15401,7 +15941,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15459,7 +16001,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15517,7 +16061,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15575,7 +16121,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15633,7 +16181,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15691,7 +16241,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15749,7 +16301,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15807,7 +16361,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15865,7 +16421,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15923,7 +16481,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15981,7 +16541,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16039,7 +16601,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16097,7 +16661,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16155,7 +16721,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16213,7 +16781,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16271,7 +16841,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16329,7 +16901,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16387,7 +16961,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16445,7 +17021,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16503,7 +17081,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16561,7 +17141,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16619,7 +17201,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16677,7 +17261,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16735,7 +17321,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16793,7 +17381,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16851,7 +17441,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16909,7 +17501,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16967,7 +17561,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17025,7 +17621,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17083,7 +17681,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17141,7 +17741,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17199,7 +17801,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17257,7 +17861,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17315,7 +17921,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17373,7 +17981,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17431,7 +18041,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17489,7 +18101,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17547,7 +18161,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17605,7 +18221,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17663,7 +18281,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17721,7 +18341,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17779,7 +18401,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17837,7 +18461,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17895,7 +18521,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17953,7 +18581,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18011,7 +18641,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18069,7 +18701,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18127,7 +18761,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18185,7 +18821,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18243,7 +18881,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18301,7 +18941,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18359,7 +19001,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18417,7 +19061,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18475,7 +19121,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18533,7 +19181,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18591,7 +19241,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18649,7 +19301,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18707,7 +19361,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18765,7 +19421,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18823,7 +19481,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18881,7 +19541,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18939,7 +19601,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0.02197229591836735</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
